--- a/data/extracted_data/raw_round2/data/Farcy_etal_2013_Fig3.xlsx
+++ b/data/extracted_data/raw_round2/data/Farcy_etal_2013_Fig3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{781EF014-D005-2545-8694-F55C5FC19B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA0F812-302C-7044-9758-A6BC76E5DDE4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
+    <workbookView xWindow="700" yWindow="800" windowWidth="28800" windowHeight="16140" xr2:uid="{0D7750D1-042F-7F46-94AD-6B8F8EE94874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,10 +116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,13 +418,12 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -442,7 +436,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -459,7 +453,7 @@
       <c r="C2" s="1">
         <v>39188</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <f>C2-$C$2</f>
         <v>0</v>
       </c>
@@ -477,7 +471,7 @@
       <c r="C3" s="1">
         <v>39204</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <f t="shared" ref="D3:D18" si="0">C3-$C$2</f>
         <v>16</v>
       </c>
@@ -495,7 +489,7 @@
       <c r="C4" s="1">
         <v>39216</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -513,7 +507,7 @@
       <c r="C5" s="1">
         <v>39231</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -531,7 +525,7 @@
       <c r="C6" s="1">
         <v>39245</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -549,7 +543,7 @@
       <c r="C7" s="1">
         <v>39251</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -567,7 +561,7 @@
       <c r="C8" s="1">
         <v>39279</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>91</v>
       </c>
       <c r="E8">
@@ -584,7 +578,7 @@
       <c r="C9" s="1">
         <v>39265</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -602,7 +596,7 @@
       <c r="C10" s="1">
         <v>39279</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
@@ -620,7 +614,7 @@
       <c r="C11" s="1">
         <v>39188</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -638,7 +632,7 @@
       <c r="C12" s="1">
         <v>39204</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -656,7 +650,7 @@
       <c r="C13" s="1">
         <v>39216</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -674,7 +668,7 @@
       <c r="C14" s="1">
         <v>39231</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -692,7 +686,7 @@
       <c r="C15" s="1">
         <v>39245</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -710,7 +704,7 @@
       <c r="C16" s="1">
         <v>39251</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -728,7 +722,7 @@
       <c r="C17" s="1">
         <v>39265</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -746,7 +740,7 @@
       <c r="C18" s="1">
         <v>39279</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
